--- a/metadata/_dataset_strings_Smetana.xlsx
+++ b/metadata/_dataset_strings_Smetana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_TACR\repo\Classification-of-interpretation-differences\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B52A15-5989-45FC-B27A-7565FF796BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6182A5E-81B4-4C9B-99BC-EB40CFE700BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="285">
   <si>
     <t>Name</t>
   </si>
@@ -889,18 +889,29 @@
   </si>
   <si>
     <t>063</t>
+  </si>
+  <si>
+    <t>label_random</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -998,11 +1009,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1011,56 +1022,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1346,15 +1360,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H64"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>155</v>
       </c>
@@ -1382,8 +1396,11 @@
       <c r="I1" s="12" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J1" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>156</v>
       </c>
@@ -1409,8 +1426,11 @@
       <c r="I2" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>157</v>
       </c>
@@ -1436,8 +1456,11 @@
       <c r="I3" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>158</v>
       </c>
@@ -1463,8 +1486,11 @@
       <c r="I4" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>159</v>
       </c>
@@ -1490,8 +1516,11 @@
       <c r="I5" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>160</v>
       </c>
@@ -1517,8 +1546,11 @@
       <c r="I6" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>161</v>
       </c>
@@ -1544,8 +1576,11 @@
       <c r="I7" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>162</v>
       </c>
@@ -1571,8 +1606,11 @@
       <c r="I8" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>163</v>
       </c>
@@ -1598,8 +1636,11 @@
       <c r="I9" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>164</v>
       </c>
@@ -1625,8 +1666,11 @@
       <c r="I10" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>165</v>
       </c>
@@ -1652,8 +1696,11 @@
       <c r="I11" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>166</v>
       </c>
@@ -1679,8 +1726,11 @@
       <c r="I12" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>167</v>
       </c>
@@ -1708,8 +1758,11 @@
       <c r="I13" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>168</v>
       </c>
@@ -1735,8 +1788,11 @@
       <c r="I14" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>169</v>
       </c>
@@ -1762,8 +1818,11 @@
       <c r="I15" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>170</v>
       </c>
@@ -1789,8 +1848,11 @@
       <c r="I16" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>171</v>
       </c>
@@ -1816,8 +1878,11 @@
       <c r="I17" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>172</v>
       </c>
@@ -1843,8 +1908,11 @@
       <c r="I18" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>173</v>
       </c>
@@ -1870,8 +1938,11 @@
       <c r="I19" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>174</v>
       </c>
@@ -1897,8 +1968,11 @@
       <c r="I20" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>182</v>
       </c>
@@ -1924,8 +1998,11 @@
       <c r="I21" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>175</v>
       </c>
@@ -1951,8 +2028,11 @@
       <c r="I22" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>176</v>
       </c>
@@ -1978,8 +2058,11 @@
       <c r="I23" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>177</v>
       </c>
@@ -2005,8 +2088,11 @@
       <c r="I24" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>178</v>
       </c>
@@ -2032,8 +2118,11 @@
       <c r="I25" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>179</v>
       </c>
@@ -2059,8 +2148,11 @@
       <c r="I26" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>180</v>
       </c>
@@ -2086,8 +2178,11 @@
       <c r="I27" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>181</v>
       </c>
@@ -2113,8 +2208,11 @@
       <c r="I28" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>183</v>
       </c>
@@ -2140,8 +2238,11 @@
       <c r="I29" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>184</v>
       </c>
@@ -2167,8 +2268,11 @@
       <c r="I30" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>185</v>
       </c>
@@ -2194,8 +2298,11 @@
       <c r="I31" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>186</v>
       </c>
@@ -2221,8 +2328,11 @@
       <c r="I32" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>187</v>
       </c>
@@ -2248,8 +2358,11 @@
       <c r="I33" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>188</v>
       </c>
@@ -2275,8 +2388,11 @@
       <c r="I34" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>189</v>
       </c>
@@ -2302,8 +2418,11 @@
       <c r="I35" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>190</v>
       </c>
@@ -2329,8 +2448,11 @@
       <c r="I36" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>191</v>
       </c>
@@ -2356,8 +2478,11 @@
       <c r="I37" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>192</v>
       </c>
@@ -2379,8 +2504,11 @@
       <c r="I38" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>193</v>
       </c>
@@ -2404,8 +2532,11 @@
       <c r="I39" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>194</v>
       </c>
@@ -2427,8 +2558,11 @@
       <c r="I40" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>195</v>
       </c>
@@ -2450,8 +2584,11 @@
       <c r="I41" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>196</v>
       </c>
@@ -2473,8 +2610,11 @@
       <c r="I42" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>197</v>
       </c>
@@ -2498,8 +2638,11 @@
       <c r="I43" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>198</v>
       </c>
@@ -2521,8 +2664,11 @@
       <c r="I44" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>199</v>
       </c>
@@ -2544,8 +2690,11 @@
       <c r="I45" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>200</v>
       </c>
@@ -2569,8 +2718,11 @@
       <c r="I46" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>201</v>
       </c>
@@ -2594,8 +2746,11 @@
       <c r="I47" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>202</v>
       </c>
@@ -2619,8 +2774,11 @@
       <c r="I48" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>203</v>
       </c>
@@ -2646,8 +2804,11 @@
       <c r="I49" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>204</v>
       </c>
@@ -2673,8 +2834,11 @@
       <c r="I50" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>205</v>
       </c>
@@ -2700,8 +2864,11 @@
       <c r="I51" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>206</v>
       </c>
@@ -2727,8 +2894,11 @@
       <c r="I52" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>207</v>
       </c>
@@ -2752,8 +2922,11 @@
       <c r="I53" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>208</v>
       </c>
@@ -2779,8 +2952,11 @@
       <c r="I54" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>209</v>
       </c>
@@ -2806,8 +2982,11 @@
       <c r="I55" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>210</v>
       </c>
@@ -2833,8 +3012,11 @@
       <c r="I56" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>211</v>
       </c>
@@ -2860,8 +3042,11 @@
       <c r="I57" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>212</v>
       </c>
@@ -2887,8 +3072,11 @@
       <c r="I58" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>213</v>
       </c>
@@ -2912,8 +3100,11 @@
       <c r="I59" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>214</v>
       </c>
@@ -2939,8 +3130,11 @@
       <c r="I60" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>215</v>
       </c>
@@ -2966,8 +3160,11 @@
       <c r="I61" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>216</v>
       </c>
@@ -2993,8 +3190,11 @@
       <c r="I62" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>217</v>
       </c>
@@ -3018,8 +3218,11 @@
       <c r="I63" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>218</v>
       </c>
@@ -3045,9 +3248,12 @@
       <c r="I64" s="12">
         <v>0</v>
       </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1" tooltip="Moyzes Quartet" display="https://www.discogs.com/artist/1644458-Moyzes-Quartet" xr:uid="{27C82BCA-A4ED-4E24-9820-193F1E90C353}"/>
     <hyperlink ref="B15" r:id="rId2" display="https://www.naxosmusiclibrary.com/artist/62694" xr:uid="{46EB3F89-F49E-43DA-B3B5-0190F8A0B71A}"/>
@@ -3077,15 +3283,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367F045F-EB6C-4A4F-87A0-3B32B61FB866}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H27"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>155</v>
       </c>
@@ -3113,8 +3319,11 @@
       <c r="I1" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>156</v>
       </c>
@@ -3138,8 +3347,11 @@
       <c r="I2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>157</v>
       </c>
@@ -3167,8 +3379,11 @@
       <c r="I3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>158</v>
       </c>
@@ -3194,8 +3409,11 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>159</v>
       </c>
@@ -3221,8 +3439,11 @@
       <c r="I5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>160</v>
       </c>
@@ -3248,8 +3469,11 @@
       <c r="I6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>161</v>
       </c>
@@ -3275,8 +3499,11 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>162</v>
       </c>
@@ -3304,8 +3531,11 @@
       <c r="I8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>163</v>
       </c>
@@ -3331,8 +3561,11 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>164</v>
       </c>
@@ -3358,8 +3591,11 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>165</v>
       </c>
@@ -3385,8 +3621,11 @@
       <c r="I11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>166</v>
       </c>
@@ -3412,8 +3651,11 @@
       <c r="I12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>167</v>
       </c>
@@ -3439,8 +3681,11 @@
       <c r="I13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>168</v>
       </c>
@@ -3466,8 +3711,11 @@
       <c r="I14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>169</v>
       </c>
@@ -3493,8 +3741,11 @@
       <c r="I15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>170</v>
       </c>
@@ -3520,8 +3771,11 @@
       <c r="I16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>171</v>
       </c>
@@ -3547,8 +3801,11 @@
       <c r="I17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>172</v>
       </c>
@@ -3574,8 +3831,11 @@
       <c r="I18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>173</v>
       </c>
@@ -3601,8 +3861,11 @@
       <c r="I19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>174</v>
       </c>
@@ -3628,8 +3891,11 @@
       <c r="I20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>175</v>
       </c>
@@ -3655,8 +3921,11 @@
       <c r="I21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>176</v>
       </c>
@@ -3682,8 +3951,11 @@
       <c r="I22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>177</v>
       </c>
@@ -3709,8 +3981,11 @@
       <c r="I23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>178</v>
       </c>
@@ -3736,8 +4011,11 @@
       <c r="I24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>179</v>
       </c>
@@ -3763,8 +4041,11 @@
       <c r="I25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>180</v>
       </c>
@@ -3790,8 +4071,11 @@
       <c r="I26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>181</v>
       </c>
@@ -3817,9 +4101,12 @@
       <c r="I27" s="3">
         <v>1</v>
       </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1" xr:uid="{04CBD909-6ADA-4EF0-AACC-70FDAAF83E00}"/>
     <hyperlink ref="G13" r:id="rId2" xr:uid="{5B380EDD-29ED-40F2-A763-DC11CD30BBB0}"/>
